--- a/00_Data/00_INPUTS/03_SHAPEFILES/CIV/civ_adminboundaries_tabulardata.xlsx
+++ b/00_Data/00_INPUTS/03_SHAPEFILES/CIV/civ_adminboundaries_tabulardata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/a_hema_cgiar_org/Documents/Desktop/Cours/2025/ENSAE/GT ISE 3 ENSAE/00_Data/00_INPUTS/03_SHAPEFILES/CIV/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_81FB21906358AC56CC9575FF59B36690DD186F80" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB8076B4-A6E3-4B3B-A27F-20950FDD3737}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADM0" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="ADM2" sheetId="3" r:id="rId3"/>
     <sheet name="ADM3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -4234,11 +4240,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4302,13 +4308,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4346,7 +4360,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4380,6 +4394,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4414,9 +4429,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4589,17 +4605,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +4644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4654,7 +4670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4662,9 +4678,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4699,7 +4715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4722,7 +4738,7 @@
         <v>8111.94091796875</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4745,7 +4761,7 @@
         <v>8660.38671875</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4768,7 +4784,7 @@
         <v>10196.3447265625</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4791,7 +4807,7 @@
         <v>6807.20068359375</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4814,7 +4830,7 @@
         <v>10901.2421875</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4837,7 +4853,7 @@
         <v>22078.23046875</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4860,7 +4876,7 @@
         <v>11281.6142578125</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4886,7 +4902,7 @@
         <v>2139.45751953125</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4909,7 +4925,7 @@
         <v>2069.362548828125</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4932,7 +4948,7 @@
         <v>6603.46728515625</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4955,7 +4971,7 @@
         <v>8989.111328125</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4978,7 +4994,7 @@
         <v>6203.919921875</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5001,7 +5017,7 @@
         <v>6891.35791015625</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -5024,7 +5040,7 @@
         <v>16104.54296875</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5047,7 +5063,7 @@
         <v>4432.056640625</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -5070,7 +5086,7 @@
         <v>7181.14453125</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5093,7 +5109,7 @@
         <v>19283.0234375</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -5116,7 +5132,7 @@
         <v>15193.0224609375</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -5139,7 +5155,7 @@
         <v>8869.806640625</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -5162,7 +5178,7 @@
         <v>6911.0595703125</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -5185,7 +5201,7 @@
         <v>14186.1767578125</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -5208,7 +5224,7 @@
         <v>8785.134765625</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -5231,7 +5247,7 @@
         <v>8683.005859375</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -5254,7 +5270,7 @@
         <v>8043.84033203125</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -5277,7 +5293,7 @@
         <v>5581.2509765625</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -5303,7 +5319,7 @@
         <v>4805.80859375</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -5326,7 +5342,7 @@
         <v>9743.3330078125</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -5349,7 +5365,7 @@
         <v>12549.81640625</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -5372,7 +5388,7 @@
         <v>12287.0087890625</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -5395,7 +5411,7 @@
         <v>7075.0458984375</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -5418,7 +5434,7 @@
         <v>17346.2890625</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -5441,7 +5457,7 @@
         <v>12183.4306640625</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -5470,7 +5486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5478,9 +5494,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
@@ -5521,7 +5537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -5550,7 +5566,7 @@
         <v>4013.9970703125</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -5579,7 +5595,7 @@
         <v>2139.45751953125</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -5608,7 +5624,7 @@
         <v>4426.42626953125</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -5637,10 +5653,10 @@
         <v>43287</v>
       </c>
       <c r="M5">
-        <v>877.0062866210938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>877.00628662109375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -5672,7 +5688,7 @@
         <v>2050.97265625</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -5701,7 +5717,7 @@
         <v>4057.58056640625</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -5733,7 +5749,7 @@
         <v>1789.3544921875</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -5765,7 +5781,7 @@
         <v>1681.62109375</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -5797,7 +5813,7 @@
         <v>2863.38330078125</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -5826,7 +5842,7 @@
         <v>1541.503540039062</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -5858,7 +5874,7 @@
         <v>801.6307373046875</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -5887,7 +5903,7 @@
         <v>2210.3125</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -5919,7 +5935,7 @@
         <v>2520.765380859375</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -5951,7 +5967,7 @@
         <v>1107.708251953125</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -5980,7 +5996,7 @@
         <v>3897.885986328125</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -6012,7 +6028,7 @@
         <v>2980.78125</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -6041,7 +6057,7 @@
         <v>2539.628173828125</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -6070,7 +6086,7 @@
         <v>6926.87548828125</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -6099,7 +6115,7 @@
         <v>1616.134399414062</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -6128,7 +6144,7 @@
         <v>1302.056396484375</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -6160,7 +6176,7 @@
         <v>4008.3134765625</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -6192,7 +6208,7 @@
         <v>3388.343994140625</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -6221,7 +6237,7 @@
         <v>14409.810546875</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -6250,7 +6266,7 @@
         <v>4336.83642578125</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -6279,7 +6295,7 @@
         <v>2366.298828125</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -6308,7 +6324,7 @@
         <v>9828.3291015625</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -6337,7 +6353,7 @@
         <v>1457.680908203125</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -6366,7 +6382,7 @@
         <v>3821.750244140625</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -6398,7 +6414,7 @@
         <v>3192.1552734375</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -6427,7 +6443,7 @@
         <v>3778.602783203125</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -6456,7 +6472,7 @@
         <v>3057.375244140625</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -6485,7 +6501,7 @@
         <v>1703.428955078125</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -6514,7 +6530,7 @@
         <v>2476.464111328125</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -6543,7 +6559,7 @@
         <v>1569.6142578125</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -6572,7 +6588,7 @@
         <v>3524.442626953125</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -6598,10 +6614,10 @@
         <v>43287</v>
       </c>
       <c r="M37">
-        <v>385.0899047851562</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>385.08990478515619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -6630,7 +6646,7 @@
         <v>2003.051025390625</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -6662,7 +6678,7 @@
         <v>2903.962646484375</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -6691,7 +6707,7 @@
         <v>1047.211181640625</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -6723,7 +6739,7 @@
         <v>3975.943359375</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -6752,7 +6768,7 @@
         <v>1864.677734375</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -6781,7 +6797,7 @@
         <v>4675.11083984375</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -6810,7 +6826,7 @@
         <v>1920.00927734375</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -6839,7 +6855,7 @@
         <v>938.733154296875</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -6868,7 +6884,7 @@
         <v>2318.656982421875</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -6900,7 +6916,7 @@
         <v>877.68701171875</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -6929,7 +6945,7 @@
         <v>3276.522705078125</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>138</v>
       </c>
@@ -6958,7 +6974,7 @@
         <v>2483.4814453125</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -6987,7 +7003,7 @@
         <v>3465.960205078125</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -7016,7 +7032,7 @@
         <v>655.7183837890625</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>141</v>
       </c>
@@ -7045,7 +7061,7 @@
         <v>4940.82177734375</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -7074,7 +7090,7 @@
         <v>3426.07275390625</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -7103,7 +7119,7 @@
         <v>2813.382568359375</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -7132,7 +7148,7 @@
         <v>8992.5107421875</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>145</v>
       </c>
@@ -7161,7 +7177,7 @@
         <v>6880.27685546875</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -7190,7 +7206,7 @@
         <v>3029.736328125</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -7216,10 +7232,10 @@
         <v>43287</v>
       </c>
       <c r="M58">
-        <v>696.5664672851562</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>696.56646728515625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -7248,7 +7264,7 @@
         <v>1019.657897949219</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -7277,7 +7293,7 @@
         <v>3597.867919921875</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -7306,7 +7322,7 @@
         <v>1345.063232421875</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -7335,7 +7351,7 @@
         <v>3558.6796875</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -7364,7 +7380,7 @@
         <v>2777.2109375</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -7396,7 +7412,7 @@
         <v>2562.939453125</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -7428,7 +7444,7 @@
         <v>2423.61328125</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -7460,7 +7476,7 @@
         <v>2677.4111328125</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -7489,7 +7505,7 @@
         <v>3164.8876953125</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>157</v>
       </c>
@@ -7518,7 +7534,7 @@
         <v>2629.55859375</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -7547,7 +7563,7 @@
         <v>6498.80419921875</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -7579,7 +7595,7 @@
         <v>1518.672607421875</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -7608,7 +7624,7 @@
         <v>3177.394287109375</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -7637,7 +7653,7 @@
         <v>2810.906982421875</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -7666,7 +7682,7 @@
         <v>6641.31103515625</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>163</v>
       </c>
@@ -7695,7 +7711,7 @@
         <v>6097.123046875</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>164</v>
       </c>
@@ -7724,7 +7740,7 @@
         <v>4377.83447265625</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -7753,7 +7769,7 @@
         <v>2259.730712890625</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -7785,7 +7801,7 @@
         <v>2216.246826171875</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -7814,7 +7830,7 @@
         <v>2528.2646484375</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>168</v>
       </c>
@@ -7843,7 +7859,7 @@
         <v>1777.94580078125</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>169</v>
       </c>
@@ -7869,10 +7885,10 @@
         <v>43287</v>
       </c>
       <c r="M80">
-        <v>823.7815551757812</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>823.78155517578125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>170</v>
       </c>
@@ -7904,7 +7920,7 @@
         <v>7111.72021484375</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>171</v>
       </c>
@@ -7933,7 +7949,7 @@
         <v>2777.576171875</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -7962,7 +7978,7 @@
         <v>4339.2421875</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -7994,7 +8010,7 @@
         <v>6488.83642578125</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>174</v>
       </c>
@@ -8026,7 +8042,7 @@
         <v>2180.374755859375</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -8052,10 +8068,10 @@
         <v>43287</v>
       </c>
       <c r="M86">
-        <v>761.8541870117188</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>761.85418701171875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -8084,10 +8100,10 @@
         <v>43287</v>
       </c>
       <c r="M87">
-        <v>515.6638793945312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>515.66387939453125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>177</v>
       </c>
@@ -8116,7 +8132,7 @@
         <v>1701.556884765625</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -8145,7 +8161,7 @@
         <v>1090.266357421875</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -8177,7 +8193,7 @@
         <v>4980.67431640625</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -8203,10 +8219,10 @@
         <v>43287</v>
       </c>
       <c r="M91">
-        <v>928.4247436523438</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>928.42474365234375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -8235,7 +8251,7 @@
         <v>5175.28857421875</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>182</v>
       </c>
@@ -8264,7 +8280,7 @@
         <v>4215.5107421875</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -8293,7 +8309,7 @@
         <v>1668.900024414062</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -8325,7 +8341,7 @@
         <v>2854.462158203125</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -8354,7 +8370,7 @@
         <v>2300.82861328125</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>186</v>
       </c>
@@ -8380,10 +8396,10 @@
         <v>43287</v>
       </c>
       <c r="M97">
-        <v>832.8800659179688</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>832.88006591796875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>187</v>
       </c>
@@ -8415,7 +8431,7 @@
         <v>2364.08154296875</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -8447,7 +8463,7 @@
         <v>2383.758544921875</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>189</v>
       </c>
@@ -8476,7 +8492,7 @@
         <v>3370.91943359375</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>190</v>
       </c>
@@ -8502,10 +8518,10 @@
         <v>43287</v>
       </c>
       <c r="M101">
-        <v>808.7994995117188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>808.79949951171875</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>191</v>
       </c>
@@ -8534,7 +8550,7 @@
         <v>2334.92333984375</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -8563,7 +8579,7 @@
         <v>1133.323364257812</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>193</v>
       </c>
@@ -8592,7 +8608,7 @@
         <v>6320.5146484375</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>194</v>
       </c>
@@ -8624,7 +8640,7 @@
         <v>1447.863525390625</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>195</v>
       </c>
@@ -8653,7 +8669,7 @@
         <v>1267.731689453125</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>196</v>
       </c>
@@ -8682,7 +8698,7 @@
         <v>1373.564697265625</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>197</v>
       </c>
@@ -8711,7 +8727,7 @@
         <v>1584.79736328125</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>198</v>
       </c>
@@ -8749,17 +8765,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O511"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>336</v>
       </c>
@@ -8806,7 +8826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -8838,10 +8858,10 @@
         <v>43287</v>
       </c>
       <c r="O2">
-        <v>757.0379028320312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>757.03790283203125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -8873,10 +8893,10 @@
         <v>43287</v>
       </c>
       <c r="O3">
-        <v>553.0105590820312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>553.01055908203125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>341</v>
       </c>
@@ -8911,7 +8931,7 @@
         <v>517.7003173828125</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -8943,10 +8963,10 @@
         <v>43287</v>
       </c>
       <c r="O5">
-        <v>646.8851928710938</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>646.88519287109375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -8981,10 +9001,10 @@
         <v>43287</v>
       </c>
       <c r="O6">
-        <v>230.9408569335938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>230.94085693359381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -9016,10 +9036,10 @@
         <v>43287</v>
       </c>
       <c r="O7">
-        <v>183.7881011962891</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>183.78810119628909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -9054,10 +9074,10 @@
         <v>43287</v>
       </c>
       <c r="O8">
-        <v>315.9305114746094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>315.93051147460938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>345</v>
       </c>
@@ -9089,10 +9109,10 @@
         <v>43287</v>
       </c>
       <c r="O9">
-        <v>390.7695922851562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>390.76959228515619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>307</v>
       </c>
@@ -9124,10 +9144,10 @@
         <v>43287</v>
       </c>
       <c r="O10">
-        <v>431.9900512695312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>431.99005126953119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>346</v>
       </c>
@@ -9162,7 +9182,7 @@
         <v>250.6578674316406</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9200,7 +9220,7 @@
         <v>1022.559936523438</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>347</v>
       </c>
@@ -9238,7 +9258,7 @@
         <v>650.013427734375</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -9273,7 +9293,7 @@
         <v>870.2716064453125</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>309</v>
       </c>
@@ -9305,10 +9325,10 @@
         <v>43287</v>
       </c>
       <c r="O15">
-        <v>448.9243774414062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>448.92437744140619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>348</v>
       </c>
@@ -9340,10 +9360,10 @@
         <v>43287</v>
       </c>
       <c r="O16">
-        <v>345.3944396972656</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>345.39443969726563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -9375,10 +9395,10 @@
         <v>43287</v>
       </c>
       <c r="O17">
-        <v>462.5678405761719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>462.56784057617188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>350</v>
       </c>
@@ -9413,10 +9433,10 @@
         <v>43287</v>
       </c>
       <c r="O18">
-        <v>253.4694061279297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>253.46940612792969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -9451,10 +9471,10 @@
         <v>43287</v>
       </c>
       <c r="O19">
-        <v>698.1658325195312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>698.16583251953125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>351</v>
       </c>
@@ -9486,10 +9506,10 @@
         <v>43287</v>
       </c>
       <c r="O20">
-        <v>303.8689880371094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>303.86898803710938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -9524,10 +9544,10 @@
         <v>43287</v>
       </c>
       <c r="O21">
-        <v>526.8934936523438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>526.89349365234375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>352</v>
       </c>
@@ -9562,7 +9582,7 @@
         <v>185.9395446777344</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>353</v>
       </c>
@@ -9594,10 +9614,10 @@
         <v>43287</v>
       </c>
       <c r="O23">
-        <v>179.8794097900391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>179.87940979003909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>354</v>
       </c>
@@ -9632,10 +9652,10 @@
         <v>43287</v>
       </c>
       <c r="O24">
-        <v>334.8876647949219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>334.88766479492188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>355</v>
       </c>
@@ -9670,7 +9690,7 @@
         <v>541.190185546875</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>356</v>
       </c>
@@ -9708,7 +9728,7 @@
         <v>327.47216796875</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>357</v>
       </c>
@@ -9743,10 +9763,10 @@
         <v>43287</v>
       </c>
       <c r="O27">
-        <v>323.5007019042969</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>323.50070190429688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>358</v>
       </c>
@@ -9781,10 +9801,10 @@
         <v>43287</v>
       </c>
       <c r="O28">
-        <v>316.0862426757812</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>316.08624267578119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>359</v>
       </c>
@@ -9819,7 +9839,7 @@
         <v>245.068359375</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>360</v>
       </c>
@@ -9854,7 +9874,7 @@
         <v>263.2537841796875</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>361</v>
       </c>
@@ -9892,7 +9912,7 @@
         <v>653.9744873046875</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>362</v>
       </c>
@@ -9930,7 +9950,7 @@
         <v>188.7426452636719</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>363</v>
       </c>
@@ -9962,10 +9982,10 @@
         <v>43287</v>
       </c>
       <c r="O33">
-        <v>318.7510070800781</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>318.75100708007813</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>364</v>
       </c>
@@ -10000,7 +10020,7 @@
         <v>498.4447021484375</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>365</v>
       </c>
@@ -10032,10 +10052,10 @@
         <v>43287</v>
       </c>
       <c r="O35">
-        <v>96.67698669433594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>96.676986694335938</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>366</v>
       </c>
@@ -10067,10 +10087,10 @@
         <v>43287</v>
       </c>
       <c r="O36">
-        <v>586.3521118164062</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>586.35211181640625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -10102,10 +10122,10 @@
         <v>43287</v>
       </c>
       <c r="O37">
-        <v>704.9010620117188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>704.90106201171875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>367</v>
       </c>
@@ -10140,7 +10160,7 @@
         <v>182.826904296875</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>368</v>
       </c>
@@ -10175,10 +10195,10 @@
         <v>43287</v>
       </c>
       <c r="O39">
-        <v>237.4807739257812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>237.48077392578119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>369</v>
       </c>
@@ -10210,10 +10230,10 @@
         <v>43287</v>
       </c>
       <c r="O40">
-        <v>213.5443725585938</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>213.54437255859381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>370</v>
       </c>
@@ -10245,10 +10265,10 @@
         <v>43287</v>
       </c>
       <c r="O41">
-        <v>159.9374237060547</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>159.93742370605469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>371</v>
       </c>
@@ -10283,10 +10303,10 @@
         <v>43287</v>
       </c>
       <c r="O42">
-        <v>418.0213928222656</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>418.02139282226563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>101</v>
       </c>
@@ -10321,10 +10341,10 @@
         <v>43287</v>
       </c>
       <c r="O43">
-        <v>339.2687072753906</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>339.26870727539063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>372</v>
       </c>
@@ -10356,10 +10376,10 @@
         <v>43287</v>
       </c>
       <c r="O44">
-        <v>429.4233093261719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>429.42330932617188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>373</v>
       </c>
@@ -10391,10 +10411,10 @@
         <v>43287</v>
       </c>
       <c r="O45">
-        <v>121.6743392944336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>121.67433929443359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>374</v>
       </c>
@@ -10429,10 +10449,10 @@
         <v>43287</v>
       </c>
       <c r="O46">
-        <v>475.9332885742188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>475.93328857421881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>375</v>
       </c>
@@ -10464,10 +10484,10 @@
         <v>43287</v>
       </c>
       <c r="O47">
-        <v>275.9519653320312</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>275.95196533203119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>376</v>
       </c>
@@ -10502,10 +10522,10 @@
         <v>43287</v>
       </c>
       <c r="O48">
-        <v>350.2099914550781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>350.20999145507813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>377</v>
       </c>
@@ -10537,10 +10557,10 @@
         <v>43287</v>
       </c>
       <c r="O49">
-        <v>323.8464660644531</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>323.84646606445313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>378</v>
       </c>
@@ -10575,7 +10595,7 @@
         <v>713.3690185546875</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>379</v>
       </c>
@@ -10610,7 +10630,7 @@
         <v>469.4654541015625</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>380</v>
       </c>
@@ -10642,10 +10662,10 @@
         <v>43287</v>
       </c>
       <c r="O52">
-        <v>54.59819030761719</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>54.598190307617188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>381</v>
       </c>
@@ -10680,7 +10700,7 @@
         <v>2013.47314453125</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>382</v>
       </c>
@@ -10715,7 +10735,7 @@
         <v>93.530029296875</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>383</v>
       </c>
@@ -10750,7 +10770,7 @@
         <v>273.1959228515625</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -10782,10 +10802,10 @@
         <v>43287</v>
       </c>
       <c r="O56">
-        <v>355.3612670898438</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>355.36126708984381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>384</v>
       </c>
@@ -10820,7 +10840,7 @@
         <v>125.4753952026367</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>385</v>
       </c>
@@ -10855,7 +10875,7 @@
         <v>1025.38037109375</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>386</v>
       </c>
@@ -10887,10 +10907,10 @@
         <v>43287</v>
       </c>
       <c r="O59">
-        <v>268.5425415039062</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>268.54254150390619</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>387</v>
       </c>
@@ -10922,10 +10942,10 @@
         <v>43287</v>
       </c>
       <c r="O60">
-        <v>279.4052124023438</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>279.40521240234381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>388</v>
       </c>
@@ -10957,10 +10977,10 @@
         <v>43287</v>
       </c>
       <c r="O61">
-        <v>914.1306762695312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>914.13067626953125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>389</v>
       </c>
@@ -10995,10 +11015,10 @@
         <v>43287</v>
       </c>
       <c r="O62">
-        <v>229.4470367431641</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>229.44703674316409</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>390</v>
       </c>
@@ -11036,7 +11056,7 @@
         <v>148.8884582519531</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>391</v>
       </c>
@@ -11071,10 +11091,10 @@
         <v>43287</v>
       </c>
       <c r="O64">
-        <v>333.4418029785156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>333.44180297851563</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>392</v>
       </c>
@@ -11112,7 +11132,7 @@
         <v>411.7545166015625</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>393</v>
       </c>
@@ -11150,7 +11170,7 @@
         <v>1114.31689453125</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>394</v>
       </c>
@@ -11185,10 +11205,10 @@
         <v>43287</v>
       </c>
       <c r="O67">
-        <v>251.3863372802734</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>251.38633728027341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>395</v>
       </c>
@@ -11223,7 +11243,7 @@
         <v>356.0169677734375</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>396</v>
       </c>
@@ -11261,7 +11281,7 @@
         <v>146.6756591796875</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -11299,7 +11319,7 @@
         <v>1134.433715820312</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>397</v>
       </c>
@@ -11334,10 +11354,10 @@
         <v>43287</v>
       </c>
       <c r="O71">
-        <v>681.7857055664062</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>681.78570556640625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -11369,10 +11389,10 @@
         <v>43287</v>
       </c>
       <c r="O72">
-        <v>652.9750366210938</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>652.97503662109375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>398</v>
       </c>
@@ -11404,10 +11424,10 @@
         <v>43287</v>
       </c>
       <c r="O73">
-        <v>542.8187866210938</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>542.81878662109375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>399</v>
       </c>
@@ -11442,10 +11462,10 @@
         <v>43287</v>
       </c>
       <c r="O74">
-        <v>639.8069458007812</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>639.80694580078125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>400</v>
       </c>
@@ -11480,7 +11500,7 @@
         <v>3338.01318359375</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>401</v>
       </c>
@@ -11515,10 +11535,10 @@
         <v>43287</v>
       </c>
       <c r="O76">
-        <v>214.4442596435547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>214.44425964355469</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>402</v>
       </c>
@@ -11550,10 +11570,10 @@
         <v>43287</v>
       </c>
       <c r="O77">
-        <v>304.9689636230469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>304.96896362304688</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>403</v>
       </c>
@@ -11585,10 +11605,10 @@
         <v>43287</v>
       </c>
       <c r="O78">
-        <v>178.8436126708984</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>178.84361267089841</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>404</v>
       </c>
@@ -11626,7 +11646,7 @@
         <v>227.037353515625</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>405</v>
       </c>
@@ -11664,7 +11684,7 @@
         <v>239.0476379394531</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -11702,7 +11722,7 @@
         <v>1665.1572265625</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>406</v>
       </c>
@@ -11734,10 +11754,10 @@
         <v>43287</v>
       </c>
       <c r="O82">
-        <v>399.0289001464844</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>399.02890014648438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>407</v>
       </c>
@@ -11772,7 +11792,7 @@
         <v>953.2705078125</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -11807,7 +11827,7 @@
         <v>1314.24755859375</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>408</v>
       </c>
@@ -11839,10 +11859,10 @@
         <v>43287</v>
       </c>
       <c r="O85">
-        <v>383.8649597167969</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>383.86495971679688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>409</v>
       </c>
@@ -11874,10 +11894,10 @@
         <v>43287</v>
       </c>
       <c r="O86">
-        <v>261.9024353027344</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>261.90243530273438</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>410</v>
       </c>
@@ -11915,7 +11935,7 @@
         <v>176.6521911621094</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>411</v>
       </c>
@@ -11950,10 +11970,10 @@
         <v>43287</v>
       </c>
       <c r="O88">
-        <v>288.8352661132812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>288.83526611328119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -11985,10 +12005,10 @@
         <v>43287</v>
       </c>
       <c r="O89">
-        <v>303.6470031738281</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>303.64700317382813</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>413</v>
       </c>
@@ -12023,7 +12043,7 @@
         <v>719.7657470703125</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -12055,10 +12075,10 @@
         <v>43287</v>
       </c>
       <c r="O91">
-        <v>725.0977172851562</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>725.09771728515625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>414</v>
       </c>
@@ -12090,10 +12110,10 @@
         <v>43287</v>
       </c>
       <c r="O92">
-        <v>279.8570861816406</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>279.85708618164063</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>109</v>
       </c>
@@ -12125,10 +12145,10 @@
         <v>43287</v>
       </c>
       <c r="O93">
-        <v>584.8151245117188</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>584.81512451171875</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -12166,7 +12186,7 @@
         <v>512.4588623046875</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>416</v>
       </c>
@@ -12198,10 +12218,10 @@
         <v>43287</v>
       </c>
       <c r="O95">
-        <v>827.2180786132812</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>827.21807861328125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>417</v>
       </c>
@@ -12233,10 +12253,10 @@
         <v>43287</v>
       </c>
       <c r="O96">
-        <v>181.1821136474609</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>181.18211364746091</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>418</v>
       </c>
@@ -12268,10 +12288,10 @@
         <v>43287</v>
       </c>
       <c r="O97">
-        <v>968.9531860351562</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>968.95318603515625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>419</v>
       </c>
@@ -12303,10 +12323,10 @@
         <v>43287</v>
       </c>
       <c r="O98">
-        <v>531.4552612304688</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>531.45526123046875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>420</v>
       </c>
@@ -12338,10 +12358,10 @@
         <v>43287</v>
       </c>
       <c r="O99">
-        <v>882.3783569335938</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>882.37835693359375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>421</v>
       </c>
@@ -12373,10 +12393,10 @@
         <v>43287</v>
       </c>
       <c r="O100">
-        <v>717.5556030273438</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>717.55560302734375</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>422</v>
       </c>
@@ -12408,10 +12428,10 @@
         <v>43287</v>
       </c>
       <c r="O101">
-        <v>445.2863159179688</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>445.28631591796881</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -12443,10 +12463,10 @@
         <v>43287</v>
       </c>
       <c r="O102">
-        <v>306.5042419433594</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>306.50424194335938</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -12484,7 +12504,7 @@
         <v>1249.78857421875</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -12522,7 +12542,7 @@
         <v>1765.4052734375</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>423</v>
       </c>
@@ -12557,7 +12577,7 @@
         <v>1279.741821289062</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>424</v>
       </c>
@@ -12589,10 +12609,10 @@
         <v>43287</v>
       </c>
       <c r="O106">
-        <v>456.7369689941406</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>456.73696899414063</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>425</v>
       </c>
@@ -12624,10 +12644,10 @@
         <v>43287</v>
       </c>
       <c r="O107">
-        <v>448.7373352050781</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>448.73733520507813</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>426</v>
       </c>
@@ -12662,7 +12682,7 @@
         <v>642.62353515625</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -12697,7 +12717,7 @@
         <v>2276.102294921875</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>427</v>
       </c>
@@ -12729,10 +12749,10 @@
         <v>43287</v>
       </c>
       <c r="O110">
-        <v>407.7283630371094</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>407.72836303710938</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -12767,7 +12787,7 @@
         <v>1479.676879882812</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>428</v>
       </c>
@@ -12802,7 +12822,7 @@
         <v>148.7903137207031</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>429</v>
       </c>
@@ -12837,10 +12857,10 @@
         <v>43287</v>
       </c>
       <c r="O113">
-        <v>174.7627563476562</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>174.76275634765619</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -12875,7 +12895,7 @@
         <v>1287.722412109375</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>430</v>
       </c>
@@ -12907,10 +12927,10 @@
         <v>43287</v>
       </c>
       <c r="O115">
-        <v>287.3595581054688</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>287.35955810546881</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>431</v>
       </c>
@@ -12945,10 +12965,10 @@
         <v>43287</v>
       </c>
       <c r="O116">
-        <v>568.3069458007812</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>568.30694580078125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -12983,7 +13003,7 @@
         <v>1938.208618164062</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -13015,10 +13035,10 @@
         <v>43287</v>
       </c>
       <c r="O118">
-        <v>480.2690734863281</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>480.26907348632813</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>432</v>
       </c>
@@ -13053,7 +13073,7 @@
         <v>599.84228515625</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>433</v>
       </c>
@@ -13088,10 +13108,10 @@
         <v>43287</v>
       </c>
       <c r="O120">
-        <v>205.2361450195312</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>205.23614501953119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>434</v>
       </c>
@@ -13126,7 +13146,7 @@
         <v>694.6070556640625</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>435</v>
       </c>
@@ -13158,10 +13178,10 @@
         <v>43287</v>
       </c>
       <c r="O122">
-        <v>620.4910278320312</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>620.49102783203125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>436</v>
       </c>
@@ -13196,7 +13216,7 @@
         <v>540.821533203125</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>437</v>
       </c>
@@ -13231,7 +13251,7 @@
         <v>798.0606689453125</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>118</v>
       </c>
@@ -13266,7 +13286,7 @@
         <v>1077.483764648438</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>438</v>
       </c>
@@ -13301,10 +13321,10 @@
         <v>43287</v>
       </c>
       <c r="O126">
-        <v>150.3395538330078</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>150.33955383300781</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>119</v>
       </c>
@@ -13339,10 +13359,10 @@
         <v>43287</v>
       </c>
       <c r="O127">
-        <v>682.8943481445312</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>682.89434814453125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>439</v>
       </c>
@@ -13377,7 +13397,7 @@
         <v>963.514892578125</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>440</v>
       </c>
@@ -13412,7 +13432,7 @@
         <v>1494.103271484375</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>441</v>
       </c>
@@ -13447,7 +13467,7 @@
         <v>1449.78515625</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>442</v>
       </c>
@@ -13479,10 +13499,10 @@
         <v>43287</v>
       </c>
       <c r="O131">
-        <v>357.2623596191406</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>357.26235961914063</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>120</v>
       </c>
@@ -13514,10 +13534,10 @@
         <v>43287</v>
       </c>
       <c r="O132">
-        <v>862.9143676757812</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>862.91436767578125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>443</v>
       </c>
@@ -13555,7 +13575,7 @@
         <v>1078.576538085938</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>444</v>
       </c>
@@ -13593,7 +13613,7 @@
         <v>234.5959777832031</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>445</v>
       </c>
@@ -13628,7 +13648,7 @@
         <v>130.8334655761719</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>446</v>
       </c>
@@ -13666,7 +13686,7 @@
         <v>323.37841796875</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>447</v>
       </c>
@@ -13698,10 +13718,10 @@
         <v>43287</v>
       </c>
       <c r="O137">
-        <v>408.3441467285156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>408.34414672851563</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>448</v>
       </c>
@@ -13733,10 +13753,10 @@
         <v>43287</v>
       </c>
       <c r="O138">
-        <v>425.9225158691406</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+        <v>425.92251586914063</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>449</v>
       </c>
@@ -13768,10 +13788,10 @@
         <v>43287</v>
       </c>
       <c r="O139">
-        <v>369.7322387695312</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <v>369.73223876953119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>450</v>
       </c>
@@ -13803,10 +13823,10 @@
         <v>43287</v>
       </c>
       <c r="O140">
-        <v>244.8295745849609</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>244.82957458496091</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>121</v>
       </c>
@@ -13841,7 +13861,7 @@
         <v>1568.765625</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>451</v>
       </c>
@@ -13876,7 +13896,7 @@
         <v>1488.609497070312</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>452</v>
       </c>
@@ -13911,7 +13931,7 @@
         <v>1823.972412109375</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>453</v>
       </c>
@@ -13946,10 +13966,10 @@
         <v>43287</v>
       </c>
       <c r="O144">
-        <v>297.0192565917969</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>297.01925659179688</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>454</v>
       </c>
@@ -13981,10 +14001,10 @@
         <v>43287</v>
       </c>
       <c r="O145">
-        <v>227.0656585693359</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>227.06565856933591</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>122</v>
       </c>
@@ -14019,7 +14039,7 @@
         <v>442.648193359375</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>455</v>
       </c>
@@ -14051,10 +14071,10 @@
         <v>43287</v>
       </c>
       <c r="O147">
-        <v>260.1427307128906</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+        <v>260.14273071289063</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>456</v>
       </c>
@@ -14089,10 +14109,10 @@
         <v>43287</v>
       </c>
       <c r="O148">
-        <v>441.4148254394531</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+        <v>441.41482543945313</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>457</v>
       </c>
@@ -14130,7 +14150,7 @@
         <v>118.9925842285156</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>458</v>
       </c>
@@ -14162,10 +14182,10 @@
         <v>43287</v>
       </c>
       <c r="O150">
-        <v>399.4176635742188</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <v>399.41766357421881</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>123</v>
       </c>
@@ -14200,7 +14220,7 @@
         <v>1240.743408203125</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>459</v>
       </c>
@@ -14235,7 +14255,7 @@
         <v>586.468017578125</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>124</v>
       </c>
@@ -14267,10 +14287,10 @@
         <v>43287</v>
       </c>
       <c r="O153">
-        <v>436.3783569335938</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+        <v>436.37835693359381</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>460</v>
       </c>
@@ -14302,10 +14322,10 @@
         <v>43287</v>
       </c>
       <c r="O154">
-        <v>272.7201232910156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+        <v>272.72012329101563</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>461</v>
       </c>
@@ -14340,7 +14360,7 @@
         <v>1582.477905273438</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>125</v>
       </c>
@@ -14375,7 +14395,7 @@
         <v>949.442138671875</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>462</v>
       </c>
@@ -14410,10 +14430,10 @@
         <v>43287</v>
       </c>
       <c r="O157">
-        <v>494.6814880371094</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <v>494.68148803710938</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>463</v>
       </c>
@@ -14448,10 +14468,10 @@
         <v>43287</v>
       </c>
       <c r="O158">
-        <v>295.2080993652344</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+        <v>295.20809936523438</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>464</v>
       </c>
@@ -14486,10 +14506,10 @@
         <v>43287</v>
       </c>
       <c r="O159">
-        <v>203.9077911376953</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <v>203.90779113769531</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>465</v>
       </c>
@@ -14524,7 +14544,7 @@
         <v>1787.959350585938</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>466</v>
       </c>
@@ -14556,10 +14576,10 @@
         <v>43287</v>
       </c>
       <c r="O161">
-        <v>182.3849029541016</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <v>182.38490295410159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>467</v>
       </c>
@@ -14594,7 +14614,7 @@
         <v>2331.790771484375</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>468</v>
       </c>
@@ -14629,7 +14649,7 @@
         <v>2005.871826171875</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>469</v>
       </c>
@@ -14664,7 +14684,7 @@
         <v>1518.865478515625</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>470</v>
       </c>
@@ -14699,10 +14719,10 @@
         <v>43287</v>
       </c>
       <c r="O165">
-        <v>305.5735168457031</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+        <v>305.57351684570313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>471</v>
       </c>
@@ -14734,10 +14754,10 @@
         <v>43287</v>
       </c>
       <c r="O166">
-        <v>408.1741333007812</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <v>408.17413330078119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>127</v>
       </c>
@@ -14769,10 +14789,10 @@
         <v>43287</v>
       </c>
       <c r="O167">
-        <v>785.4047241210938</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+        <v>785.40472412109375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>472</v>
       </c>
@@ -14807,10 +14827,10 @@
         <v>43287</v>
       </c>
       <c r="O168">
-        <v>287.1813354492188</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+        <v>287.18133544921881</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>473</v>
       </c>
@@ -14842,10 +14862,10 @@
         <v>43287</v>
       </c>
       <c r="O169">
-        <v>291.0095520019531</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+        <v>291.00955200195313</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>474</v>
       </c>
@@ -14877,10 +14897,10 @@
         <v>43287</v>
       </c>
       <c r="O170">
-        <v>463.2735290527344</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15">
+        <v>463.27352905273438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>128</v>
       </c>
@@ -14915,10 +14935,10 @@
         <v>43287</v>
       </c>
       <c r="O171">
-        <v>827.3941040039062</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15">
+        <v>827.39410400390625</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>475</v>
       </c>
@@ -14950,10 +14970,10 @@
         <v>43287</v>
       </c>
       <c r="O172">
-        <v>692.0293579101562</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15">
+        <v>692.02935791015625</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>476</v>
       </c>
@@ -14985,10 +15005,10 @@
         <v>43287</v>
       </c>
       <c r="O173">
-        <v>207.6284027099609</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15">
+        <v>207.62840270996091</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>477</v>
       </c>
@@ -15020,10 +15040,10 @@
         <v>43287</v>
       </c>
       <c r="O174">
-        <v>397.8006286621094</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+        <v>397.80062866210938</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>478</v>
       </c>
@@ -15058,7 +15078,7 @@
         <v>689.9908447265625</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>479</v>
       </c>
@@ -15093,10 +15113,10 @@
         <v>43287</v>
       </c>
       <c r="O176">
-        <v>285.0788269042969</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>285.07882690429688</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>129</v>
       </c>
@@ -15128,10 +15148,10 @@
         <v>43287</v>
       </c>
       <c r="O177">
-        <v>127.3835220336914</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>127.38352203369141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>480</v>
       </c>
@@ -15166,7 +15186,7 @@
         <v>1071.854736328125</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>481</v>
       </c>
@@ -15198,10 +15218,10 @@
         <v>43287</v>
       </c>
       <c r="O179">
-        <v>53.52599334716797</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>53.525993347167969</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>482</v>
       </c>
@@ -15233,10 +15253,10 @@
         <v>43287</v>
       </c>
       <c r="O180">
-        <v>569.1541137695312</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15">
+        <v>569.15411376953125</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>483</v>
       </c>
@@ -15271,7 +15291,7 @@
         <v>485.44580078125</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>484</v>
       </c>
@@ -15309,7 +15329,7 @@
         <v>2199.217529296875</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>485</v>
       </c>
@@ -15344,7 +15364,7 @@
         <v>2370.071533203125</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>486</v>
       </c>
@@ -15376,10 +15396,10 @@
         <v>43287</v>
       </c>
       <c r="O184">
-        <v>655.1906127929688</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15">
+        <v>655.19061279296875</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>131</v>
       </c>
@@ -15411,10 +15431,10 @@
         <v>43287</v>
       </c>
       <c r="O185">
-        <v>632.8679809570312</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15">
+        <v>632.86798095703125</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>487</v>
       </c>
@@ -15449,7 +15469,7 @@
         <v>1514.12890625</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>488</v>
       </c>
@@ -15484,7 +15504,7 @@
         <v>1157.894287109375</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>489</v>
       </c>
@@ -15519,7 +15539,7 @@
         <v>417.829345703125</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -15554,7 +15574,7 @@
         <v>889.95556640625</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>490</v>
       </c>
@@ -15589,10 +15609,10 @@
         <v>43287</v>
       </c>
       <c r="O190">
-        <v>397.8993530273438</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
+        <v>397.89935302734381</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>491</v>
       </c>
@@ -15627,7 +15647,7 @@
         <v>1190.440673828125</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -15662,7 +15682,7 @@
         <v>537.20263671875</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>493</v>
       </c>
@@ -15697,10 +15717,10 @@
         <v>43287</v>
       </c>
       <c r="O193">
-        <v>73.43777465820312</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15">
+        <v>73.437774658203125</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>494</v>
       </c>
@@ -15735,10 +15755,10 @@
         <v>43287</v>
       </c>
       <c r="O194">
-        <v>322.9855651855469</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15">
+        <v>322.98556518554688</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>495</v>
       </c>
@@ -15770,10 +15790,10 @@
         <v>43287</v>
       </c>
       <c r="O195">
-        <v>501.4136352539062</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15">
+        <v>501.41363525390619</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>496</v>
       </c>
@@ -15808,10 +15828,10 @@
         <v>43287</v>
       </c>
       <c r="O196">
-        <v>308.9896545410156</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15">
+        <v>308.98965454101563</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>497</v>
       </c>
@@ -15849,7 +15869,7 @@
         <v>196.1932373046875</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>498</v>
       </c>
@@ -15884,10 +15904,10 @@
         <v>43287</v>
       </c>
       <c r="O198">
-        <v>773.8380737304688</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15">
+        <v>773.83807373046875</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>499</v>
       </c>
@@ -15919,10 +15939,10 @@
         <v>43287</v>
       </c>
       <c r="O199">
-        <v>480.1944885253906</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15">
+        <v>480.19448852539063</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>500</v>
       </c>
@@ -15954,10 +15974,10 @@
         <v>43287</v>
       </c>
       <c r="O200">
-        <v>869.6076049804688</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15">
+        <v>869.60760498046875</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>501</v>
       </c>
@@ -15992,10 +16012,10 @@
         <v>43287</v>
       </c>
       <c r="O201">
-        <v>257.1270446777344</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15">
+        <v>257.12704467773438</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>502</v>
       </c>
@@ -16030,7 +16050,7 @@
         <v>1179.721923828125</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>503</v>
       </c>
@@ -16068,7 +16088,7 @@
         <v>968.528564453125</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>504</v>
       </c>
@@ -16100,10 +16120,10 @@
         <v>43287</v>
       </c>
       <c r="O204">
-        <v>180.1910552978516</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15">
+        <v>180.19105529785159</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>505</v>
       </c>
@@ -16138,7 +16158,7 @@
         <v>1681.7236328125</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>506</v>
       </c>
@@ -16170,10 +16190,10 @@
         <v>43287</v>
       </c>
       <c r="O206">
-        <v>687.2639770507812</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15">
+        <v>687.26397705078125</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>507</v>
       </c>
@@ -16205,10 +16225,10 @@
         <v>43287</v>
       </c>
       <c r="O207">
-        <v>400.8699645996094</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15">
+        <v>400.86996459960938</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>508</v>
       </c>
@@ -16243,7 +16263,7 @@
         <v>172.7900390625</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>509</v>
       </c>
@@ -16278,7 +16298,7 @@
         <v>320.7969970703125</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>510</v>
       </c>
@@ -16316,7 +16336,7 @@
         <v>158.2651062011719</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>511</v>
       </c>
@@ -16348,10 +16368,10 @@
         <v>43287</v>
       </c>
       <c r="O211">
-        <v>427.5218200683594</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15">
+        <v>427.52182006835938</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>512</v>
       </c>
@@ -16389,7 +16409,7 @@
         <v>232.344482421875</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>513</v>
       </c>
@@ -16427,7 +16447,7 @@
         <v>1372.065673828125</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>514</v>
       </c>
@@ -16459,10 +16479,10 @@
         <v>43287</v>
       </c>
       <c r="O214">
-        <v>261.7237854003906</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15">
+        <v>261.72378540039063</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>515</v>
       </c>
@@ -16497,7 +16517,7 @@
         <v>1766.068725585938</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>516</v>
       </c>
@@ -16532,10 +16552,10 @@
         <v>43287</v>
       </c>
       <c r="O216">
-        <v>293.7637634277344</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15">
+        <v>293.76376342773438</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>517</v>
       </c>
@@ -16570,7 +16590,7 @@
         <v>1355.984375</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>134</v>
       </c>
@@ -16605,7 +16625,7 @@
         <v>127.4208145141602</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>518</v>
       </c>
@@ -16643,7 +16663,7 @@
         <v>1542.022583007812</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>519</v>
       </c>
@@ -16678,10 +16698,10 @@
         <v>43287</v>
       </c>
       <c r="O220">
-        <v>171.9595794677734</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15">
+        <v>171.95957946777341</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>520</v>
       </c>
@@ -16716,7 +16736,7 @@
         <v>1038.119506835938</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>521</v>
       </c>
@@ -16751,7 +16771,7 @@
         <v>1100.329467773438</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>522</v>
       </c>
@@ -16786,10 +16806,10 @@
         <v>43287</v>
       </c>
       <c r="O223">
-        <v>262.8269348144531</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15">
+        <v>262.82693481445313</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>523</v>
       </c>
@@ -16821,10 +16841,10 @@
         <v>43287</v>
       </c>
       <c r="O224">
-        <v>896.8076782226562</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15">
+        <v>896.80767822265625</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>524</v>
       </c>
@@ -16859,10 +16879,10 @@
         <v>43287</v>
       </c>
       <c r="O225">
-        <v>381.8622741699219</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15">
+        <v>381.86227416992188</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>525</v>
       </c>
@@ -16900,7 +16920,7 @@
         <v>182.0928649902344</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>526</v>
       </c>
@@ -16938,7 +16958,7 @@
         <v>326.1397705078125</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>527</v>
       </c>
@@ -16973,10 +16993,10 @@
         <v>43287</v>
       </c>
       <c r="O228">
-        <v>474.0154418945312</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15">
+        <v>474.01544189453119</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>136</v>
       </c>
@@ -17011,10 +17031,10 @@
         <v>43287</v>
       </c>
       <c r="O229">
-        <v>277.8447570800781</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15">
+        <v>277.84475708007813</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>528</v>
       </c>
@@ -17052,7 +17072,7 @@
         <v>723.8272705078125</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>528</v>
       </c>
@@ -17090,7 +17110,7 @@
         <v>198.7632141113281</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>529</v>
       </c>
@@ -17125,7 +17145,7 @@
         <v>565.7314453125</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>530</v>
       </c>
@@ -17160,10 +17180,10 @@
         <v>43287</v>
       </c>
       <c r="O233">
-        <v>518.1652221679688</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15">
+        <v>518.16522216796875</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>137</v>
       </c>
@@ -17198,7 +17218,7 @@
         <v>1928.323120117188</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>531</v>
       </c>
@@ -17233,10 +17253,10 @@
         <v>43287</v>
       </c>
       <c r="O235">
-        <v>377.3672790527344</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15">
+        <v>377.36727905273438</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>532</v>
       </c>
@@ -17274,7 +17294,7 @@
         <v>1460.243896484375</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>138</v>
       </c>
@@ -17309,7 +17329,7 @@
         <v>907.14697265625</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>533</v>
       </c>
@@ -17344,10 +17364,10 @@
         <v>43287</v>
       </c>
       <c r="O238">
-        <v>433.2201232910156</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15">
+        <v>433.22012329101563</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>534</v>
       </c>
@@ -17385,7 +17405,7 @@
         <v>667.0997314453125</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>535</v>
       </c>
@@ -17423,7 +17443,7 @@
         <v>106.1155471801758</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>139</v>
       </c>
@@ -17455,10 +17475,10 @@
         <v>43287</v>
       </c>
       <c r="O241">
-        <v>560.8444213867188</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15">
+        <v>560.84442138671875</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>140</v>
       </c>
@@ -17493,7 +17513,7 @@
         <v>534.0440673828125</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>536</v>
       </c>
@@ -17531,7 +17551,7 @@
         <v>565.080810546875</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>537</v>
       </c>
@@ -17566,10 +17586,10 @@
         <v>43287</v>
       </c>
       <c r="O244">
-        <v>160.6363983154297</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15">
+        <v>160.63639831542969</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>538</v>
       </c>
@@ -17601,10 +17621,10 @@
         <v>43287</v>
       </c>
       <c r="O245">
-        <v>111.6658706665039</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15">
+        <v>111.66587066650391</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>539</v>
       </c>
@@ -17639,7 +17659,7 @@
         <v>293.9769287109375</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>540</v>
       </c>
@@ -17674,7 +17694,7 @@
         <v>456.797607421875</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>541</v>
       </c>
@@ -17709,7 +17729,7 @@
         <v>319.3984375</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>542</v>
       </c>
@@ -17741,10 +17761,10 @@
         <v>43287</v>
       </c>
       <c r="O249">
-        <v>385.3731994628906</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15">
+        <v>385.37319946289063</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>543</v>
       </c>
@@ -17776,10 +17796,10 @@
         <v>43287</v>
       </c>
       <c r="O250">
-        <v>465.3149719238281</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15">
+        <v>465.31497192382813</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>141</v>
       </c>
@@ -17814,7 +17834,7 @@
         <v>1445.246704101562</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>142</v>
       </c>
@@ -17846,10 +17866,10 @@
         <v>43287</v>
       </c>
       <c r="O252">
-        <v>619.6254272460938</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15">
+        <v>619.62542724609375</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>544</v>
       </c>
@@ -17884,7 +17904,7 @@
         <v>923.7017822265625</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>545</v>
       </c>
@@ -17916,10 +17936,10 @@
         <v>43287</v>
       </c>
       <c r="O254">
-        <v>457.5644226074219</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15">
+        <v>457.56442260742188</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>546</v>
       </c>
@@ -17954,7 +17974,7 @@
         <v>649.31884765625</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>547</v>
       </c>
@@ -17989,7 +18009,7 @@
         <v>236.1905212402344</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>548</v>
       </c>
@@ -18024,10 +18044,10 @@
         <v>43287</v>
       </c>
       <c r="O257">
-        <v>725.0442504882812</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15">
+        <v>725.04425048828125</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>549</v>
       </c>
@@ -18062,7 +18082,7 @@
         <v>184.7071838378906</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>143</v>
       </c>
@@ -18094,10 +18114,10 @@
         <v>43287</v>
       </c>
       <c r="O259">
-        <v>764.5178833007812</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15">
+        <v>764.51788330078125</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>550</v>
       </c>
@@ -18129,10 +18149,10 @@
         <v>43287</v>
       </c>
       <c r="O260">
-        <v>444.8545837402344</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15">
+        <v>444.85458374023438</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>551</v>
       </c>
@@ -18167,10 +18187,10 @@
         <v>43287</v>
       </c>
       <c r="O261">
-        <v>347.2733764648438</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15">
+        <v>347.27337646484381</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>552</v>
       </c>
@@ -18208,7 +18228,7 @@
         <v>885.459228515625</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>553</v>
       </c>
@@ -18240,10 +18260,10 @@
         <v>43287</v>
       </c>
       <c r="O263">
-        <v>505.6405334472656</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15">
+        <v>505.64053344726563</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>554</v>
       </c>
@@ -18275,10 +18295,10 @@
         <v>43287</v>
       </c>
       <c r="O264">
-        <v>594.6934204101562</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15">
+        <v>594.69342041015625</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>555</v>
       </c>
@@ -18310,10 +18330,10 @@
         <v>43287</v>
       </c>
       <c r="O265">
-        <v>360.2710876464844</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15">
+        <v>360.27108764648438</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>556</v>
       </c>
@@ -18348,7 +18368,7 @@
         <v>157.1888122558594</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>557</v>
       </c>
@@ -18380,10 +18400,10 @@
         <v>43287</v>
       </c>
       <c r="O267">
-        <v>447.4850463867188</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15">
+        <v>447.48504638671881</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>558</v>
       </c>
@@ -18418,7 +18438,7 @@
         <v>1114.147827148438</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>559</v>
       </c>
@@ -18450,10 +18470,10 @@
         <v>43287</v>
       </c>
       <c r="O269">
-        <v>155.6232147216797</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15">
+        <v>155.62321472167969</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>560</v>
       </c>
@@ -18485,10 +18505,10 @@
         <v>43287</v>
       </c>
       <c r="O270">
-        <v>319.7267150878906</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15">
+        <v>319.72671508789063</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>561</v>
       </c>
@@ -18520,10 +18540,10 @@
         <v>43287</v>
       </c>
       <c r="O271">
-        <v>457.6677551269531</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15">
+        <v>457.66775512695313</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>562</v>
       </c>
@@ -18558,7 +18578,7 @@
         <v>237.4560546875</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>144</v>
       </c>
@@ -18593,7 +18613,7 @@
         <v>2634.192626953125</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>563</v>
       </c>
@@ -18625,10 +18645,10 @@
         <v>43287</v>
       </c>
       <c r="O274">
-        <v>639.2763061523438</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15">
+        <v>639.27630615234375</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>564</v>
       </c>
@@ -18660,10 +18680,10 @@
         <v>43287</v>
       </c>
       <c r="O275">
-        <v>338.7364196777344</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15">
+        <v>338.73641967773438</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>565</v>
       </c>
@@ -18695,10 +18715,10 @@
         <v>43287</v>
       </c>
       <c r="O276">
-        <v>503.0846557617188</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15">
+        <v>503.08465576171881</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>566</v>
       </c>
@@ -18730,10 +18750,10 @@
         <v>43287</v>
       </c>
       <c r="O277">
-        <v>387.4519958496094</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15">
+        <v>387.45199584960938</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>145</v>
       </c>
@@ -18765,10 +18785,10 @@
         <v>43287</v>
       </c>
       <c r="O278">
-        <v>619.7899780273438</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15">
+        <v>619.78997802734375</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>146</v>
       </c>
@@ -18803,7 +18823,7 @@
         <v>974.5504150390625</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>567</v>
       </c>
@@ -18835,10 +18855,10 @@
         <v>43287</v>
       </c>
       <c r="O280">
-        <v>412.3100891113281</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15">
+        <v>412.31008911132813</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>568</v>
       </c>
@@ -18873,7 +18893,7 @@
         <v>236.0233459472656</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>569</v>
       </c>
@@ -18905,10 +18925,10 @@
         <v>43287</v>
       </c>
       <c r="O282">
-        <v>152.6957855224609</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15">
+        <v>152.69578552246091</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>570</v>
       </c>
@@ -18943,10 +18963,10 @@
         <v>43287</v>
       </c>
       <c r="O283">
-        <v>452.4772033691406</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15">
+        <v>452.47720336914063</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>571</v>
       </c>
@@ -18978,10 +18998,10 @@
         <v>43287</v>
       </c>
       <c r="O284">
-        <v>505.4039916992188</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15">
+        <v>505.40399169921881</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>572</v>
       </c>
@@ -19019,7 +19039,7 @@
         <v>516.12890625</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>573</v>
       </c>
@@ -19057,7 +19077,7 @@
         <v>1134.545288085938</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>147</v>
       </c>
@@ -19089,10 +19109,10 @@
         <v>43287</v>
       </c>
       <c r="O287">
-        <v>450.0479125976562</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15">
+        <v>450.04791259765619</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>574</v>
       </c>
@@ -19124,10 +19144,10 @@
         <v>43287</v>
       </c>
       <c r="O288">
-        <v>245.7693634033203</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15">
+        <v>245.76936340332031</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>575</v>
       </c>
@@ -19162,10 +19182,10 @@
         <v>43287</v>
       </c>
       <c r="O289">
-        <v>182.7409057617188</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15">
+        <v>182.74090576171881</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>148</v>
       </c>
@@ -19197,10 +19217,10 @@
         <v>43287</v>
       </c>
       <c r="O290">
-        <v>245.3910675048828</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15">
+        <v>245.39106750488281</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>576</v>
       </c>
@@ -19232,10 +19252,10 @@
         <v>43287</v>
       </c>
       <c r="O291">
-        <v>525.5924682617188</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15">
+        <v>525.59246826171875</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>577</v>
       </c>
@@ -19270,7 +19290,7 @@
         <v>1035.4501953125</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>150</v>
       </c>
@@ -19305,7 +19325,7 @@
         <v>705.786865234375</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>151</v>
       </c>
@@ -19340,7 +19360,7 @@
         <v>666.271484375</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>578</v>
       </c>
@@ -19372,10 +19392,10 @@
         <v>43287</v>
       </c>
       <c r="O295">
-        <v>318.3271789550781</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15">
+        <v>318.32717895507813</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>579</v>
       </c>
@@ -19407,10 +19427,10 @@
         <v>43287</v>
       </c>
       <c r="O296">
-        <v>154.2917022705078</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15">
+        <v>154.29170227050781</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>580</v>
       </c>
@@ -19448,7 +19468,7 @@
         <v>778.49462890625</v>
       </c>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>581</v>
       </c>
@@ -19483,10 +19503,10 @@
         <v>43287</v>
       </c>
       <c r="O298">
-        <v>600.5790405273438</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15">
+        <v>600.57904052734375</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>582</v>
       </c>
@@ -19518,10 +19538,10 @@
         <v>43287</v>
       </c>
       <c r="O299">
-        <v>333.1498718261719</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15">
+        <v>333.14987182617188</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>152</v>
       </c>
@@ -19556,7 +19576,7 @@
         <v>1016.932983398438</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>583</v>
       </c>
@@ -19588,10 +19608,10 @@
         <v>43287</v>
       </c>
       <c r="O301">
-        <v>254.0581512451172</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15">
+        <v>254.05815124511719</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>584</v>
       </c>
@@ -19626,7 +19646,7 @@
         <v>1426.169311523438</v>
       </c>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>585</v>
       </c>
@@ -19658,10 +19678,10 @@
         <v>43287</v>
       </c>
       <c r="O303">
-        <v>324.7587585449219</v>
-      </c>
-    </row>
-    <row r="304" spans="1:15">
+        <v>324.75875854492188</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>586</v>
       </c>
@@ -19693,10 +19713,10 @@
         <v>43287</v>
       </c>
       <c r="O304">
-        <v>570.8629760742188</v>
-      </c>
-    </row>
-    <row r="305" spans="1:15">
+        <v>570.86297607421875</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>587</v>
       </c>
@@ -19731,7 +19751,7 @@
         <v>707.0291748046875</v>
       </c>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>588</v>
       </c>
@@ -19766,7 +19786,7 @@
         <v>530.06982421875</v>
       </c>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>589</v>
       </c>
@@ -19801,10 +19821,10 @@
         <v>43287</v>
       </c>
       <c r="O307">
-        <v>200.4518280029297</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15">
+        <v>200.45182800292969</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>590</v>
       </c>
@@ -19839,7 +19859,7 @@
         <v>462.362060546875</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>590</v>
       </c>
@@ -19874,7 +19894,7 @@
         <v>149.4259338378906</v>
       </c>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>591</v>
       </c>
@@ -19906,10 +19926,10 @@
         <v>43287</v>
       </c>
       <c r="O310">
-        <v>419.9444885253906</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15">
+        <v>419.94448852539063</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>592</v>
       </c>
@@ -19944,7 +19964,7 @@
         <v>391.4969482421875</v>
       </c>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>593</v>
       </c>
@@ -19982,7 +20002,7 @@
         <v>206.7982177734375</v>
       </c>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>153</v>
       </c>
@@ -20020,7 +20040,7 @@
         <v>1592.812866210938</v>
       </c>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>154</v>
       </c>
@@ -20058,7 +20078,7 @@
         <v>980.9083251953125</v>
       </c>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>155</v>
       </c>
@@ -20096,7 +20116,7 @@
         <v>1591.112426757812</v>
       </c>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>156</v>
       </c>
@@ -20131,7 +20151,7 @@
         <v>1636.18798828125</v>
       </c>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>594</v>
       </c>
@@ -20169,7 +20189,7 @@
         <v>675.93505859375</v>
       </c>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>595</v>
       </c>
@@ -20204,7 +20224,7 @@
         <v>1040.378662109375</v>
       </c>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>596</v>
       </c>
@@ -20236,10 +20256,10 @@
         <v>43287</v>
       </c>
       <c r="O319">
-        <v>141.6903228759766</v>
-      </c>
-    </row>
-    <row r="320" spans="1:15">
+        <v>141.69032287597659</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>597</v>
       </c>
@@ -20271,10 +20291,10 @@
         <v>43287</v>
       </c>
       <c r="O320">
-        <v>464.2341918945312</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15">
+        <v>464.23419189453119</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>598</v>
       </c>
@@ -20306,10 +20326,10 @@
         <v>43287</v>
       </c>
       <c r="O321">
-        <v>771.2119750976562</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15">
+        <v>771.21197509765625</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>599</v>
       </c>
@@ -20341,10 +20361,10 @@
         <v>43287</v>
       </c>
       <c r="O322">
-        <v>270.7513122558594</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15">
+        <v>270.75131225585938</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>157</v>
       </c>
@@ -20379,7 +20399,7 @@
         <v>471.2037353515625</v>
       </c>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>158</v>
       </c>
@@ -20414,7 +20434,7 @@
         <v>1987.171630859375</v>
       </c>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>600</v>
       </c>
@@ -20446,10 +20466,10 @@
         <v>43287</v>
       </c>
       <c r="O325">
-        <v>78.21294403076172</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15">
+        <v>78.212944030761719</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>601</v>
       </c>
@@ -20484,7 +20504,7 @@
         <v>1039.7685546875</v>
       </c>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>602</v>
       </c>
@@ -20519,7 +20539,7 @@
         <v>955.2637939453125</v>
       </c>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>159</v>
       </c>
@@ -20554,10 +20574,10 @@
         <v>43287</v>
       </c>
       <c r="O328">
-        <v>682.2300415039062</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15">
+        <v>682.23004150390625</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>603</v>
       </c>
@@ -20589,10 +20609,10 @@
         <v>43287</v>
       </c>
       <c r="O329">
-        <v>396.0942993164062</v>
-      </c>
-    </row>
-    <row r="330" spans="1:15">
+        <v>396.09429931640619</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>604</v>
       </c>
@@ -20627,10 +20647,10 @@
         <v>43287</v>
       </c>
       <c r="O330">
-        <v>246.5185089111328</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15">
+        <v>246.51850891113281</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>605</v>
       </c>
@@ -20668,7 +20688,7 @@
         <v>271.2452392578125</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>160</v>
       </c>
@@ -20703,7 +20723,7 @@
         <v>1167.834716796875</v>
       </c>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>606</v>
       </c>
@@ -20738,7 +20758,7 @@
         <v>677.8656005859375</v>
       </c>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>607</v>
       </c>
@@ -20773,10 +20793,10 @@
         <v>43287</v>
       </c>
       <c r="O334">
-        <v>385.3698425292969</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15">
+        <v>385.36984252929688</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>608</v>
       </c>
@@ -20811,7 +20831,7 @@
         <v>936.0811767578125</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>609</v>
       </c>
@@ -20846,7 +20866,7 @@
         <v>635.760986328125</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>610</v>
       </c>
@@ -20881,10 +20901,10 @@
         <v>43287</v>
       </c>
       <c r="O337">
-        <v>301.8602905273438</v>
-      </c>
-    </row>
-    <row r="338" spans="1:15">
+        <v>301.86029052734381</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>611</v>
       </c>
@@ -20922,7 +20942,7 @@
         <v>218.180419921875</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>612</v>
       </c>
@@ -20957,10 +20977,10 @@
         <v>43287</v>
       </c>
       <c r="O339">
-        <v>438.5915832519531</v>
-      </c>
-    </row>
-    <row r="340" spans="1:15">
+        <v>438.59158325195313</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>613</v>
       </c>
@@ -20995,10 +21015,10 @@
         <v>43287</v>
       </c>
       <c r="O340">
-        <v>233.6632232666016</v>
-      </c>
-    </row>
-    <row r="341" spans="1:15">
+        <v>233.66322326660159</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>614</v>
       </c>
@@ -21036,7 +21056,7 @@
         <v>1043.253784179688</v>
       </c>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>615</v>
       </c>
@@ -21074,7 +21094,7 @@
         <v>470.3377685546875</v>
       </c>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>616</v>
       </c>
@@ -21112,7 +21132,7 @@
         <v>221.2855529785156</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>617</v>
       </c>
@@ -21147,10 +21167,10 @@
         <v>43287</v>
       </c>
       <c r="O344">
-        <v>416.8863830566406</v>
-      </c>
-    </row>
-    <row r="345" spans="1:15">
+        <v>416.88638305664063</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>618</v>
       </c>
@@ -21185,7 +21205,7 @@
         <v>532.9949951171875</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>618</v>
       </c>
@@ -21220,7 +21240,7 @@
         <v>789.2288818359375</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>619</v>
       </c>
@@ -21255,7 +21275,7 @@
         <v>364.0482177734375</v>
       </c>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>620</v>
       </c>
@@ -21290,7 +21310,7 @@
         <v>158.9718933105469</v>
       </c>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>621</v>
       </c>
@@ -21328,7 +21348,7 @@
         <v>599.866943359375</v>
       </c>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>622</v>
       </c>
@@ -21363,10 +21383,10 @@
         <v>43287</v>
       </c>
       <c r="O350">
-        <v>324.4669494628906</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15">
+        <v>324.46694946289063</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>161</v>
       </c>
@@ -21401,7 +21421,7 @@
         <v>1215.047973632812</v>
       </c>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>623</v>
       </c>
@@ -21436,10 +21456,10 @@
         <v>43287</v>
       </c>
       <c r="O352">
-        <v>398.7714233398438</v>
-      </c>
-    </row>
-    <row r="353" spans="1:15">
+        <v>398.77142333984381</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>624</v>
       </c>
@@ -21474,10 +21494,10 @@
         <v>43287</v>
       </c>
       <c r="O353">
-        <v>63.12948608398438</v>
-      </c>
-    </row>
-    <row r="354" spans="1:15">
+        <v>63.129486083984382</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>625</v>
       </c>
@@ -21509,10 +21529,10 @@
         <v>43287</v>
       </c>
       <c r="O354">
-        <v>509.6253051757812</v>
-      </c>
-    </row>
-    <row r="355" spans="1:15">
+        <v>509.62530517578119</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>162</v>
       </c>
@@ -21547,7 +21567,7 @@
         <v>2780.384033203125</v>
       </c>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>626</v>
       </c>
@@ -21582,10 +21602,10 @@
         <v>43287</v>
       </c>
       <c r="O356">
-        <v>879.9545288085938</v>
-      </c>
-    </row>
-    <row r="357" spans="1:15">
+        <v>879.95452880859375</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>627</v>
       </c>
@@ -21623,7 +21643,7 @@
         <v>540.9854736328125</v>
       </c>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>628</v>
       </c>
@@ -21658,7 +21678,7 @@
         <v>108.7536239624023</v>
       </c>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>629</v>
       </c>
@@ -21693,10 +21713,10 @@
         <v>43287</v>
       </c>
       <c r="O359">
-        <v>623.0276489257812</v>
-      </c>
-    </row>
-    <row r="360" spans="1:15">
+        <v>623.02764892578125</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>630</v>
       </c>
@@ -21731,10 +21751,10 @@
         <v>43287</v>
       </c>
       <c r="O360">
-        <v>654.5195922851562</v>
-      </c>
-    </row>
-    <row r="361" spans="1:15">
+        <v>654.51959228515625</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>631</v>
       </c>
@@ -21772,7 +21792,7 @@
         <v>443.9771728515625</v>
       </c>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>632</v>
       </c>
@@ -21804,10 +21824,10 @@
         <v>43287</v>
       </c>
       <c r="O362">
-        <v>827.9574584960938</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15">
+        <v>827.95745849609375</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>633</v>
       </c>
@@ -21839,10 +21859,10 @@
         <v>43287</v>
       </c>
       <c r="O363">
-        <v>585.8308715820312</v>
-      </c>
-    </row>
-    <row r="364" spans="1:15">
+        <v>585.83087158203125</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>634</v>
       </c>
@@ -21874,10 +21894,10 @@
         <v>43287</v>
       </c>
       <c r="O364">
-        <v>371.3643188476562</v>
-      </c>
-    </row>
-    <row r="365" spans="1:15">
+        <v>371.36431884765619</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>635</v>
       </c>
@@ -21915,7 +21935,7 @@
         <v>382.1612548828125</v>
       </c>
     </row>
-    <row r="366" spans="1:15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>636</v>
       </c>
@@ -21947,10 +21967,10 @@
         <v>43287</v>
       </c>
       <c r="O366">
-        <v>370.7059936523438</v>
-      </c>
-    </row>
-    <row r="367" spans="1:15">
+        <v>370.70599365234381</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>637</v>
       </c>
@@ -21985,7 +22005,7 @@
         <v>146.5460510253906</v>
       </c>
     </row>
-    <row r="368" spans="1:15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>638</v>
       </c>
@@ -22023,7 +22043,7 @@
         <v>1625.560180664062</v>
       </c>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>639</v>
       </c>
@@ -22058,7 +22078,7 @@
         <v>425.5062255859375</v>
       </c>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>640</v>
       </c>
@@ -22093,7 +22113,7 @@
         <v>531.6265869140625</v>
       </c>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>641</v>
       </c>
@@ -22128,7 +22148,7 @@
         <v>938.45703125</v>
       </c>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>642</v>
       </c>
@@ -22160,10 +22180,10 @@
         <v>43287</v>
       </c>
       <c r="O372">
-        <v>328.7790222167969</v>
-      </c>
-    </row>
-    <row r="373" spans="1:15">
+        <v>328.77902221679688</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>643</v>
       </c>
@@ -22198,10 +22218,10 @@
         <v>43287</v>
       </c>
       <c r="O373">
-        <v>735.7722778320312</v>
-      </c>
-    </row>
-    <row r="374" spans="1:15">
+        <v>735.77227783203125</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>644</v>
       </c>
@@ -22236,7 +22256,7 @@
         <v>117.7836074829102</v>
       </c>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>164</v>
       </c>
@@ -22268,10 +22288,10 @@
         <v>43287</v>
       </c>
       <c r="O375">
-        <v>765.9487915039062</v>
-      </c>
-    </row>
-    <row r="376" spans="1:15">
+        <v>765.94879150390625</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>165</v>
       </c>
@@ -22303,10 +22323,10 @@
         <v>43287</v>
       </c>
       <c r="O376">
-        <v>691.5025024414062</v>
-      </c>
-    </row>
-    <row r="377" spans="1:15">
+        <v>691.50250244140625</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>645</v>
       </c>
@@ -22341,10 +22361,10 @@
         <v>43287</v>
       </c>
       <c r="O377">
-        <v>733.0604858398438</v>
-      </c>
-    </row>
-    <row r="378" spans="1:15">
+        <v>733.06048583984375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>166</v>
       </c>
@@ -22382,7 +22402,7 @@
         <v>1293.78857421875</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>646</v>
       </c>
@@ -22417,7 +22437,7 @@
         <v>836.4425048828125</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>647</v>
       </c>
@@ -22449,10 +22469,10 @@
         <v>43287</v>
       </c>
       <c r="O380">
-        <v>505.6211547851562</v>
-      </c>
-    </row>
-    <row r="381" spans="1:15">
+        <v>505.62115478515619</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>648</v>
       </c>
@@ -22484,10 +22504,10 @@
         <v>43287</v>
       </c>
       <c r="O381">
-        <v>511.3529968261719</v>
-      </c>
-    </row>
-    <row r="382" spans="1:15">
+        <v>511.35299682617188</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>649</v>
       </c>
@@ -22519,10 +22539,10 @@
         <v>43287</v>
       </c>
       <c r="O382">
-        <v>356.4544982910156</v>
-      </c>
-    </row>
-    <row r="383" spans="1:15">
+        <v>356.45449829101563</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>650</v>
       </c>
@@ -22554,10 +22574,10 @@
         <v>43287</v>
       </c>
       <c r="O383">
-        <v>186.3076629638672</v>
-      </c>
-    </row>
-    <row r="384" spans="1:15">
+        <v>186.30766296386719</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>651</v>
       </c>
@@ -22589,10 +22609,10 @@
         <v>43287</v>
       </c>
       <c r="O384">
-        <v>367.0083312988281</v>
-      </c>
-    </row>
-    <row r="385" spans="1:15">
+        <v>367.00833129882813</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>652</v>
       </c>
@@ -22627,7 +22647,7 @@
         <v>9079.7236328125</v>
       </c>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>653</v>
       </c>
@@ -22662,10 +22682,10 @@
         <v>43287</v>
       </c>
       <c r="O386">
-        <v>140.0188446044922</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15">
+        <v>140.01884460449219</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>654</v>
       </c>
@@ -22697,10 +22717,10 @@
         <v>43287</v>
       </c>
       <c r="O387">
-        <v>82.13687133789062</v>
-      </c>
-    </row>
-    <row r="388" spans="1:15">
+        <v>82.136871337890625</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>655</v>
       </c>
@@ -22735,10 +22755,10 @@
         <v>43287</v>
       </c>
       <c r="O388">
-        <v>227.4765014648438</v>
-      </c>
-    </row>
-    <row r="389" spans="1:15">
+        <v>227.47650146484381</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>167</v>
       </c>
@@ -22770,10 +22790,10 @@
         <v>43287</v>
       </c>
       <c r="O389">
-        <v>802.5907592773438</v>
-      </c>
-    </row>
-    <row r="390" spans="1:15">
+        <v>802.59075927734375</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>656</v>
       </c>
@@ -22805,10 +22825,10 @@
         <v>43287</v>
       </c>
       <c r="O390">
-        <v>127.8719253540039</v>
-      </c>
-    </row>
-    <row r="391" spans="1:15">
+        <v>127.87192535400391</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>657</v>
       </c>
@@ -22840,10 +22860,10 @@
         <v>43287</v>
       </c>
       <c r="O391">
-        <v>506.3566589355469</v>
-      </c>
-    </row>
-    <row r="392" spans="1:15">
+        <v>506.35665893554688</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>658</v>
       </c>
@@ -22875,10 +22895,10 @@
         <v>43287</v>
       </c>
       <c r="O392">
-        <v>313.6849975585938</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15">
+        <v>313.68499755859381</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>659</v>
       </c>
@@ -22913,7 +22933,7 @@
         <v>1139.662963867188</v>
       </c>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>660</v>
       </c>
@@ -22951,7 +22971,7 @@
         <v>837.1790771484375</v>
       </c>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>168</v>
       </c>
@@ -22986,7 +23006,7 @@
         <v>1099.546752929688</v>
       </c>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>661</v>
       </c>
@@ -23021,7 +23041,7 @@
         <v>1135.098876953125</v>
       </c>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>662</v>
       </c>
@@ -23053,10 +23073,10 @@
         <v>43287</v>
       </c>
       <c r="O397">
-        <v>413.9147644042969</v>
-      </c>
-    </row>
-    <row r="398" spans="1:15">
+        <v>413.91476440429688</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>169</v>
       </c>
@@ -23091,7 +23111,7 @@
         <v>229.0881652832031</v>
       </c>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>663</v>
       </c>
@@ -23129,7 +23149,7 @@
         <v>887.066162109375</v>
       </c>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>664</v>
       </c>
@@ -23167,7 +23187,7 @@
         <v>742.5853271484375</v>
       </c>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>665</v>
       </c>
@@ -23199,10 +23219,10 @@
         <v>43287</v>
       </c>
       <c r="O401">
-        <v>182.8064727783203</v>
-      </c>
-    </row>
-    <row r="402" spans="1:15">
+        <v>182.80647277832031</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>666</v>
       </c>
@@ -23237,10 +23257,10 @@
         <v>43287</v>
       </c>
       <c r="O402">
-        <v>670.3987426757812</v>
-      </c>
-    </row>
-    <row r="403" spans="1:15">
+        <v>670.39874267578125</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>667</v>
       </c>
@@ -23272,10 +23292,10 @@
         <v>43287</v>
       </c>
       <c r="O403">
-        <v>438.5536499023438</v>
-      </c>
-    </row>
-    <row r="404" spans="1:15">
+        <v>438.55364990234381</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>667</v>
       </c>
@@ -23310,7 +23330,7 @@
         <v>497.74365234375</v>
       </c>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>668</v>
       </c>
@@ -23348,7 +23368,7 @@
         <v>100.3788528442383</v>
       </c>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>669</v>
       </c>
@@ -23383,7 +23403,7 @@
         <v>1169.29931640625</v>
       </c>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>172</v>
       </c>
@@ -23415,10 +23435,10 @@
         <v>43287</v>
       </c>
       <c r="O407">
-        <v>835.7858276367188</v>
-      </c>
-    </row>
-    <row r="408" spans="1:15">
+        <v>835.78582763671875</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>670</v>
       </c>
@@ -23450,10 +23470,10 @@
         <v>43287</v>
       </c>
       <c r="O408">
-        <v>786.9220581054688</v>
-      </c>
-    </row>
-    <row r="409" spans="1:15">
+        <v>786.92205810546875</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>671</v>
       </c>
@@ -23485,10 +23505,10 @@
         <v>43287</v>
       </c>
       <c r="O409">
-        <v>405.9245910644531</v>
-      </c>
-    </row>
-    <row r="410" spans="1:15">
+        <v>405.92459106445313</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>672</v>
       </c>
@@ -23523,10 +23543,10 @@
         <v>43287</v>
       </c>
       <c r="O410">
-        <v>48.03352355957031</v>
-      </c>
-    </row>
-    <row r="411" spans="1:15">
+        <v>48.033523559570313</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>173</v>
       </c>
@@ -23564,7 +23584,7 @@
         <v>820.7470703125</v>
       </c>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>174</v>
       </c>
@@ -23602,7 +23622,7 @@
         <v>1000.652770996094</v>
       </c>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>673</v>
       </c>
@@ -23634,10 +23654,10 @@
         <v>43287</v>
       </c>
       <c r="O413">
-        <v>162.7376861572266</v>
-      </c>
-    </row>
-    <row r="414" spans="1:15">
+        <v>162.73768615722659</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>674</v>
       </c>
@@ -23672,7 +23692,7 @@
         <v>1957.174926757812</v>
       </c>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>675</v>
       </c>
@@ -23707,10 +23727,10 @@
         <v>43287</v>
       </c>
       <c r="O415">
-        <v>501.3685913085938</v>
-      </c>
-    </row>
-    <row r="416" spans="1:15">
+        <v>501.36859130859381</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>676</v>
       </c>
@@ -23745,10 +23765,10 @@
         <v>43287</v>
       </c>
       <c r="O416">
-        <v>436.0786437988281</v>
-      </c>
-    </row>
-    <row r="417" spans="1:15">
+        <v>436.07864379882813</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>677</v>
       </c>
@@ -23780,10 +23800,10 @@
         <v>43287</v>
       </c>
       <c r="O417">
-        <v>475.9207458496094</v>
-      </c>
-    </row>
-    <row r="418" spans="1:15">
+        <v>475.92074584960938</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>678</v>
       </c>
@@ -23815,10 +23835,10 @@
         <v>43287</v>
       </c>
       <c r="O418">
-        <v>669.6050415039062</v>
-      </c>
-    </row>
-    <row r="419" spans="1:15">
+        <v>669.60504150390625</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>679</v>
       </c>
@@ -23853,7 +23873,7 @@
         <v>673.1318359375</v>
       </c>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>680</v>
       </c>
@@ -23888,10 +23908,10 @@
         <v>43287</v>
       </c>
       <c r="O420">
-        <v>430.7675476074219</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15">
+        <v>430.76754760742188</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>175</v>
       </c>
@@ -23923,10 +23943,10 @@
         <v>43287</v>
       </c>
       <c r="O421">
-        <v>441.0571594238281</v>
-      </c>
-    </row>
-    <row r="422" spans="1:15">
+        <v>441.05715942382813</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>681</v>
       </c>
@@ -23961,7 +23981,7 @@
         <v>2231.07568359375</v>
       </c>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>176</v>
       </c>
@@ -23999,7 +24019,7 @@
         <v>301.3663330078125</v>
       </c>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>177</v>
       </c>
@@ -24034,7 +24054,7 @@
         <v>786.2843017578125</v>
       </c>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>178</v>
       </c>
@@ -24066,10 +24086,10 @@
         <v>43287</v>
       </c>
       <c r="O425">
-        <v>559.9661254882812</v>
-      </c>
-    </row>
-    <row r="426" spans="1:15">
+        <v>559.96612548828125</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>682</v>
       </c>
@@ -24101,10 +24121,10 @@
         <v>43287</v>
       </c>
       <c r="O426">
-        <v>613.6264038085938</v>
-      </c>
-    </row>
-    <row r="427" spans="1:15">
+        <v>613.62640380859375</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>683</v>
       </c>
@@ -24139,7 +24159,7 @@
         <v>184.7785339355469</v>
       </c>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>684</v>
       </c>
@@ -24171,10 +24191,10 @@
         <v>43287</v>
       </c>
       <c r="O428">
-        <v>370.0684204101562</v>
-      </c>
-    </row>
-    <row r="429" spans="1:15">
+        <v>370.06842041015619</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>685</v>
       </c>
@@ -24209,7 +24229,7 @@
         <v>617.4530029296875</v>
       </c>
     </row>
-    <row r="430" spans="1:15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>686</v>
       </c>
@@ -24247,7 +24267,7 @@
         <v>558.831787109375</v>
       </c>
     </row>
-    <row r="431" spans="1:15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>687</v>
       </c>
@@ -24282,7 +24302,7 @@
         <v>608.2705078125</v>
       </c>
     </row>
-    <row r="432" spans="1:15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>688</v>
       </c>
@@ -24314,10 +24334,10 @@
         <v>43287</v>
       </c>
       <c r="O432">
-        <v>972.8832397460938</v>
-      </c>
-    </row>
-    <row r="433" spans="1:15">
+        <v>972.88323974609375</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>330</v>
       </c>
@@ -24352,7 +24372,7 @@
         <v>615.3448486328125</v>
       </c>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>180</v>
       </c>
@@ -24387,7 +24407,7 @@
         <v>571.97021484375</v>
       </c>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>689</v>
       </c>
@@ -24419,10 +24439,10 @@
         <v>43287</v>
       </c>
       <c r="O435">
-        <v>328.4082641601562</v>
-      </c>
-    </row>
-    <row r="436" spans="1:15">
+        <v>328.40826416015619</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>181</v>
       </c>
@@ -24454,10 +24474,10 @@
         <v>43287</v>
       </c>
       <c r="O436">
-        <v>429.4570007324219</v>
-      </c>
-    </row>
-    <row r="437" spans="1:15">
+        <v>429.45700073242188</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>690</v>
       </c>
@@ -24495,7 +24515,7 @@
         <v>1307.048583984375</v>
       </c>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>691</v>
       </c>
@@ -24530,7 +24550,7 @@
         <v>1426.730224609375</v>
       </c>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>182</v>
       </c>
@@ -24568,7 +24588,7 @@
         <v>2094.52294921875</v>
       </c>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>183</v>
       </c>
@@ -24600,10 +24620,10 @@
         <v>43287</v>
       </c>
       <c r="O440">
-        <v>713.9212036132812</v>
-      </c>
-    </row>
-    <row r="441" spans="1:15">
+        <v>713.92120361328125</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>692</v>
       </c>
@@ -24638,10 +24658,10 @@
         <v>43287</v>
       </c>
       <c r="O441">
-        <v>244.5918426513672</v>
-      </c>
-    </row>
-    <row r="442" spans="1:15">
+        <v>244.59184265136719</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>693</v>
       </c>
@@ -24676,10 +24696,10 @@
         <v>43287</v>
       </c>
       <c r="O442">
-        <v>595.8412475585938</v>
-      </c>
-    </row>
-    <row r="443" spans="1:15">
+        <v>595.84124755859375</v>
+      </c>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>694</v>
       </c>
@@ -24714,7 +24734,7 @@
         <v>653.5478515625</v>
       </c>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>695</v>
       </c>
@@ -24749,10 +24769,10 @@
         <v>43287</v>
       </c>
       <c r="O444">
-        <v>353.1629028320312</v>
-      </c>
-    </row>
-    <row r="445" spans="1:15">
+        <v>353.16290283203119</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>696</v>
       </c>
@@ -24787,10 +24807,10 @@
         <v>43287</v>
       </c>
       <c r="O445">
-        <v>405.3671569824219</v>
-      </c>
-    </row>
-    <row r="446" spans="1:15">
+        <v>405.36715698242188</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>697</v>
       </c>
@@ -24825,10 +24845,10 @@
         <v>43287</v>
       </c>
       <c r="O446">
-        <v>181.3253784179688</v>
-      </c>
-    </row>
-    <row r="447" spans="1:15">
+        <v>181.32537841796881</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>184</v>
       </c>
@@ -24866,7 +24886,7 @@
         <v>1002.014526367188</v>
       </c>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>698</v>
       </c>
@@ -24904,7 +24924,7 @@
         <v>1287.834838867188</v>
       </c>
     </row>
-    <row r="449" spans="1:15">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>185</v>
       </c>
@@ -24939,7 +24959,7 @@
         <v>1145.126831054688</v>
       </c>
     </row>
-    <row r="450" spans="1:15">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>186</v>
       </c>
@@ -24974,7 +24994,7 @@
         <v>304.1727294921875</v>
       </c>
     </row>
-    <row r="451" spans="1:15">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>187</v>
       </c>
@@ -25009,10 +25029,10 @@
         <v>43287</v>
       </c>
       <c r="O451">
-        <v>645.9454956054688</v>
-      </c>
-    </row>
-    <row r="452" spans="1:15">
+        <v>645.94549560546875</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>699</v>
       </c>
@@ -25050,7 +25070,7 @@
         <v>675.177978515625</v>
       </c>
     </row>
-    <row r="453" spans="1:15">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>700</v>
       </c>
@@ -25085,10 +25105,10 @@
         <v>43287</v>
       </c>
       <c r="O453">
-        <v>443.8919982910156</v>
-      </c>
-    </row>
-    <row r="454" spans="1:15">
+        <v>443.89199829101563</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>188</v>
       </c>
@@ -25126,7 +25146,7 @@
         <v>933.848876953125</v>
       </c>
     </row>
-    <row r="455" spans="1:15">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>701</v>
       </c>
@@ -25161,10 +25181,10 @@
         <v>43287</v>
       </c>
       <c r="O455">
-        <v>426.8746032714844</v>
-      </c>
-    </row>
-    <row r="456" spans="1:15">
+        <v>426.87460327148438</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>702</v>
       </c>
@@ -25202,7 +25222,7 @@
         <v>941.126953125</v>
       </c>
     </row>
-    <row r="457" spans="1:15">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>703</v>
       </c>
@@ -25240,7 +25260,7 @@
         <v>1022.82275390625</v>
       </c>
     </row>
-    <row r="458" spans="1:15">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>704</v>
       </c>
@@ -25275,7 +25295,7 @@
         <v>886.466064453125</v>
       </c>
     </row>
-    <row r="459" spans="1:15">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>705</v>
       </c>
@@ -25307,10 +25327,10 @@
         <v>43287</v>
       </c>
       <c r="O459">
-        <v>275.8134155273438</v>
-      </c>
-    </row>
-    <row r="460" spans="1:15">
+        <v>275.81341552734381</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>706</v>
       </c>
@@ -25345,10 +25365,10 @@
         <v>43287</v>
       </c>
       <c r="O460">
-        <v>67.00001525878906</v>
-      </c>
-    </row>
-    <row r="461" spans="1:15">
+        <v>67.000015258789063</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>707</v>
       </c>
@@ -25386,7 +25406,7 @@
         <v>534.73583984375</v>
       </c>
     </row>
-    <row r="462" spans="1:15">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>708</v>
       </c>
@@ -25418,10 +25438,10 @@
         <v>43287</v>
       </c>
       <c r="O462">
-        <v>207.2700347900391</v>
-      </c>
-    </row>
-    <row r="463" spans="1:15">
+        <v>207.27003479003909</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>709</v>
       </c>
@@ -25453,10 +25473,10 @@
         <v>43287</v>
       </c>
       <c r="O463">
-        <v>131.6334838867188</v>
-      </c>
-    </row>
-    <row r="464" spans="1:15">
+        <v>131.63348388671881</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>710</v>
       </c>
@@ -25488,10 +25508,10 @@
         <v>43287</v>
       </c>
       <c r="O464">
-        <v>191.9877319335938</v>
-      </c>
-    </row>
-    <row r="465" spans="1:15">
+        <v>191.98773193359381</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>711</v>
       </c>
@@ -25529,7 +25549,7 @@
         <v>1251.13330078125</v>
       </c>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>712</v>
       </c>
@@ -25561,10 +25581,10 @@
         <v>43287</v>
       </c>
       <c r="O466">
-        <v>298.9504699707031</v>
-      </c>
-    </row>
-    <row r="467" spans="1:15">
+        <v>298.95046997070313</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>713</v>
       </c>
@@ -25599,7 +25619,7 @@
         <v>631.12939453125</v>
       </c>
     </row>
-    <row r="468" spans="1:15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>714</v>
       </c>
@@ -25631,10 +25651,10 @@
         <v>43287</v>
       </c>
       <c r="O468">
-        <v>154.1602172851562</v>
-      </c>
-    </row>
-    <row r="469" spans="1:15">
+        <v>154.16021728515619</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>189</v>
       </c>
@@ -25669,7 +25689,7 @@
         <v>982.7647705078125</v>
       </c>
     </row>
-    <row r="470" spans="1:15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>715</v>
       </c>
@@ -25704,7 +25724,7 @@
         <v>1165.18359375</v>
       </c>
     </row>
-    <row r="471" spans="1:15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>716</v>
       </c>
@@ -25739,7 +25759,7 @@
         <v>34.1126708984375</v>
       </c>
     </row>
-    <row r="472" spans="1:15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>190</v>
       </c>
@@ -25774,7 +25794,7 @@
         <v>109.2423782348633</v>
       </c>
     </row>
-    <row r="473" spans="1:15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>191</v>
       </c>
@@ -25809,7 +25829,7 @@
         <v>863.875244140625</v>
       </c>
     </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>717</v>
       </c>
@@ -25841,10 +25861,10 @@
         <v>43287</v>
       </c>
       <c r="O474">
-        <v>175.3815155029297</v>
-      </c>
-    </row>
-    <row r="475" spans="1:15">
+        <v>175.38151550292969</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>718</v>
       </c>
@@ -25879,7 +25899,7 @@
         <v>484.0748291015625</v>
       </c>
     </row>
-    <row r="476" spans="1:15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>719</v>
       </c>
@@ -25914,7 +25934,7 @@
         <v>585.9149169921875</v>
       </c>
     </row>
-    <row r="477" spans="1:15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>192</v>
       </c>
@@ -25946,10 +25966,10 @@
         <v>43287</v>
       </c>
       <c r="O477">
-        <v>469.5326232910156</v>
-      </c>
-    </row>
-    <row r="478" spans="1:15">
+        <v>469.53262329101563</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>193</v>
       </c>
@@ -25984,7 +26004,7 @@
         <v>688.6356201171875</v>
       </c>
     </row>
-    <row r="479" spans="1:15">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>720</v>
       </c>
@@ -26019,7 +26039,7 @@
         <v>352.7088623046875</v>
       </c>
     </row>
-    <row r="480" spans="1:15">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>721</v>
       </c>
@@ -26054,7 +26074,7 @@
         <v>2480.140625</v>
       </c>
     </row>
-    <row r="481" spans="1:15">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>334</v>
       </c>
@@ -26086,10 +26106,10 @@
         <v>43287</v>
       </c>
       <c r="O481">
-        <v>624.2684936523438</v>
-      </c>
-    </row>
-    <row r="482" spans="1:15">
+        <v>624.26849365234375</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>722</v>
       </c>
@@ -26124,10 +26144,10 @@
         <v>43287</v>
       </c>
       <c r="O482">
-        <v>923.0996704101562</v>
-      </c>
-    </row>
-    <row r="483" spans="1:15">
+        <v>923.09967041015625</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>723</v>
       </c>
@@ -26165,7 +26185,7 @@
         <v>131.8426513671875</v>
       </c>
     </row>
-    <row r="484" spans="1:15">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>724</v>
       </c>
@@ -26197,10 +26217,10 @@
         <v>43287</v>
       </c>
       <c r="O484">
-        <v>352.0996398925781</v>
-      </c>
-    </row>
-    <row r="485" spans="1:15">
+        <v>352.09963989257813</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>195</v>
       </c>
@@ -26232,10 +26252,10 @@
         <v>43287</v>
       </c>
       <c r="O485">
-        <v>855.4215698242188</v>
-      </c>
-    </row>
-    <row r="486" spans="1:15">
+        <v>855.42156982421875</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>725</v>
       </c>
@@ -26273,7 +26293,7 @@
         <v>372.7232666015625</v>
       </c>
     </row>
-    <row r="487" spans="1:15">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>726</v>
       </c>
@@ -26308,7 +26328,7 @@
         <v>938.022705078125</v>
       </c>
     </row>
-    <row r="488" spans="1:15">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>727</v>
       </c>
@@ -26340,10 +26360,10 @@
         <v>43287</v>
       </c>
       <c r="O488">
-        <v>105.8438110351562</v>
-      </c>
-    </row>
-    <row r="489" spans="1:15">
+        <v>105.84381103515619</v>
+      </c>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>728</v>
       </c>
@@ -26375,10 +26395,10 @@
         <v>43287</v>
       </c>
       <c r="O489">
-        <v>149.5809173583984</v>
-      </c>
-    </row>
-    <row r="490" spans="1:15">
+        <v>149.58091735839841</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>729</v>
       </c>
@@ -26413,10 +26433,10 @@
         <v>43287</v>
       </c>
       <c r="O490">
-        <v>101.3168716430664</v>
-      </c>
-    </row>
-    <row r="491" spans="1:15">
+        <v>101.31687164306641</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>730</v>
       </c>
@@ -26451,10 +26471,10 @@
         <v>43287</v>
       </c>
       <c r="O491">
-        <v>384.9803771972656</v>
-      </c>
-    </row>
-    <row r="492" spans="1:15">
+        <v>384.98037719726563</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>731</v>
       </c>
@@ -26486,10 +26506,10 @@
         <v>43287</v>
       </c>
       <c r="O492">
-        <v>237.3838653564453</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15">
+        <v>237.38386535644531</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>732</v>
       </c>
@@ -26524,7 +26544,7 @@
         <v>1175.326904296875</v>
       </c>
     </row>
-    <row r="494" spans="1:15">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>733</v>
       </c>
@@ -26559,7 +26579,7 @@
         <v>530.3001708984375</v>
       </c>
     </row>
-    <row r="495" spans="1:15">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>734</v>
       </c>
@@ -26594,7 +26614,7 @@
         <v>1675.588256835938</v>
       </c>
     </row>
-    <row r="496" spans="1:15">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>735</v>
       </c>
@@ -26632,7 +26652,7 @@
         <v>2120.98779296875</v>
       </c>
     </row>
-    <row r="497" spans="1:15">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>736</v>
       </c>
@@ -26667,10 +26687,10 @@
         <v>43287</v>
       </c>
       <c r="O497">
-        <v>59.59624481201172</v>
-      </c>
-    </row>
-    <row r="498" spans="1:15">
+        <v>59.596244812011719</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>737</v>
       </c>
@@ -26705,10 +26725,10 @@
         <v>43287</v>
       </c>
       <c r="O498">
-        <v>458.5193176269531</v>
-      </c>
-    </row>
-    <row r="499" spans="1:15">
+        <v>458.51931762695313</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>738</v>
       </c>
@@ -26740,10 +26760,10 @@
         <v>43287</v>
       </c>
       <c r="O499">
-        <v>280.0170288085938</v>
-      </c>
-    </row>
-    <row r="500" spans="1:15">
+        <v>280.01702880859381</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>739</v>
       </c>
@@ -26775,10 +26795,10 @@
         <v>43287</v>
       </c>
       <c r="O500">
-        <v>489.8813171386719</v>
-      </c>
-    </row>
-    <row r="501" spans="1:15">
+        <v>489.88131713867188</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>740</v>
       </c>
@@ -26813,7 +26833,7 @@
         <v>627.7435302734375</v>
       </c>
     </row>
-    <row r="502" spans="1:15">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>741</v>
       </c>
@@ -26851,7 +26871,7 @@
         <v>505.76123046875</v>
       </c>
     </row>
-    <row r="503" spans="1:15">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>742</v>
       </c>
@@ -26886,10 +26906,10 @@
         <v>43287</v>
       </c>
       <c r="O503">
-        <v>382.9325256347656</v>
-      </c>
-    </row>
-    <row r="504" spans="1:15">
+        <v>382.93252563476563</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>743</v>
       </c>
@@ -26927,7 +26947,7 @@
         <v>74.0230712890625</v>
       </c>
     </row>
-    <row r="505" spans="1:15">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>744</v>
       </c>
@@ -26962,7 +26982,7 @@
         <v>109.7803192138672</v>
       </c>
     </row>
-    <row r="506" spans="1:15">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>745</v>
       </c>
@@ -27000,7 +27020,7 @@
         <v>158.6174011230469</v>
       </c>
     </row>
-    <row r="507" spans="1:15">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>746</v>
       </c>
@@ -27032,10 +27052,10 @@
         <v>43287</v>
       </c>
       <c r="O507">
-        <v>310.9724426269531</v>
-      </c>
-    </row>
-    <row r="508" spans="1:15">
+        <v>310.97244262695313</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>747</v>
       </c>
@@ -27070,7 +27090,7 @@
         <v>444.08837890625</v>
       </c>
     </row>
-    <row r="509" spans="1:15">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>748</v>
       </c>
@@ -27102,10 +27122,10 @@
         <v>43287</v>
       </c>
       <c r="O509">
-        <v>441.0149536132812</v>
-      </c>
-    </row>
-    <row r="510" spans="1:15">
+        <v>441.01495361328119</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>197</v>
       </c>
@@ -27137,10 +27157,10 @@
         <v>43287</v>
       </c>
       <c r="O510">
-        <v>587.6565551757812</v>
-      </c>
-    </row>
-    <row r="511" spans="1:15">
+        <v>587.65655517578125</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>198</v>
       </c>
